--- a/Componet/DavisFrank_1601Wk1_Time Estimation.xlsx
+++ b/Componet/DavisFrank_1601Wk1_Time Estimation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank\Documents\PAP-School\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank\Documents\Davis_Frank_Portfolio\Componet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,7 +657,7 @@
         <v>5</v>
       </c>
       <c r="E7">
-        <f>C7-D7</f>
+        <f t="shared" ref="E7:E32" si="0">C7-D7</f>
         <v>0</v>
       </c>
     </row>
@@ -672,7 +672,7 @@
         <v>5</v>
       </c>
       <c r="E8">
-        <f>C8-D8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -687,7 +687,7 @@
         <v>5</v>
       </c>
       <c r="E9">
-        <f>C9-D9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -702,7 +702,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <f>C10-D10</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -717,7 +717,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <f>C11-D11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -732,7 +732,7 @@
         <v>60</v>
       </c>
       <c r="E12">
-        <f>C12-D12</f>
+        <f t="shared" si="0"/>
         <v>-55</v>
       </c>
       <c r="F12" t="s">
@@ -750,7 +750,7 @@
         <v>20</v>
       </c>
       <c r="E13">
-        <f>C13-D13</f>
+        <f t="shared" si="0"/>
         <v>-5</v>
       </c>
     </row>
@@ -765,7 +765,7 @@
         <v>12</v>
       </c>
       <c r="E14">
-        <f>C14-D14</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -780,7 +780,7 @@
         <v>35</v>
       </c>
       <c r="E15">
-        <f>C15-D15</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -795,7 +795,7 @@
         <v>10</v>
       </c>
       <c r="E16">
-        <f>C16-D16</f>
+        <f t="shared" si="0"/>
         <v>-5</v>
       </c>
     </row>
@@ -810,7 +810,7 @@
         <v>30</v>
       </c>
       <c r="E17">
-        <f>C17-D17</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -825,7 +825,7 @@
         <v>5</v>
       </c>
       <c r="E18">
-        <f>C18-D18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -840,7 +840,7 @@
         <v>45</v>
       </c>
       <c r="E19">
-        <f>C19-D19</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -855,7 +855,7 @@
         <v>45</v>
       </c>
       <c r="E20">
-        <f>C20-D20</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -870,7 +870,7 @@
         <v>55</v>
       </c>
       <c r="E21">
-        <f>C21-D21</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -885,7 +885,7 @@
         <v>35</v>
       </c>
       <c r="E22">
-        <f>C22-D22</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
@@ -900,7 +900,7 @@
         <v>30</v>
       </c>
       <c r="E23">
-        <f>C23-D23</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -915,7 +915,7 @@
         <v>45</v>
       </c>
       <c r="E24">
-        <f>C24-D24</f>
+        <f t="shared" si="0"/>
         <v>-15</v>
       </c>
     </row>
@@ -930,7 +930,7 @@
         <v>50</v>
       </c>
       <c r="E25">
-        <f>C25-D25</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F25" t="s">
@@ -948,7 +948,7 @@
         <v>45</v>
       </c>
       <c r="E26">
-        <f>C26-D26</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -963,7 +963,7 @@
         <v>120</v>
       </c>
       <c r="E27">
-        <f>C27-D27</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
@@ -978,7 +978,7 @@
         <v>100</v>
       </c>
       <c r="E28">
-        <f>C28-D28</f>
+        <f t="shared" si="0"/>
         <v>-40</v>
       </c>
     </row>
@@ -993,7 +993,7 @@
         <v>30</v>
       </c>
       <c r="E29">
-        <f>C29-D29</f>
+        <f t="shared" si="0"/>
         <v>-10</v>
       </c>
     </row>
@@ -1008,7 +1008,7 @@
         <v>180</v>
       </c>
       <c r="E30">
-        <f>C30-D30</f>
+        <f t="shared" si="0"/>
         <v>-80</v>
       </c>
       <c r="F30" t="s">
@@ -1023,7 +1023,7 @@
         <v>60</v>
       </c>
       <c r="E31">
-        <f>C31-D31</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
@@ -1035,151 +1035,391 @@
         <v>60</v>
       </c>
       <c r="E32">
-        <f>C32-D32</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <f>C35-D35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36">
+        <f>C36-D36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>60</v>
+      </c>
+      <c r="D37">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <f>C37-D37</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>60</v>
+      </c>
+      <c r="D38">
+        <v>45</v>
+      </c>
+      <c r="E38">
+        <f>C38-D38</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>90</v>
+      </c>
+      <c r="D39">
+        <v>60</v>
+      </c>
+      <c r="E39">
+        <f>C39-D39</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>45</v>
+      </c>
+      <c r="D40">
+        <v>30</v>
+      </c>
+      <c r="E40">
+        <f>C40-D40</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>60</v>
+      </c>
+      <c r="D41">
+        <v>35</v>
+      </c>
+      <c r="E41">
+        <f>C41-D41</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>30</v>
+      </c>
+      <c r="D42">
+        <v>40</v>
+      </c>
+      <c r="E42">
+        <f>C42-D42</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>60</v>
+      </c>
+      <c r="D43">
+        <v>30</v>
+      </c>
+      <c r="E43">
+        <f>C43-D43</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>90</v>
+      </c>
+      <c r="D44">
+        <v>120</v>
+      </c>
+      <c r="E44">
+        <f>C44-D44</f>
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>45</v>
+      </c>
+      <c r="D45">
+        <v>60</v>
+      </c>
+      <c r="E45">
+        <f>C45-D45</f>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>60</v>
+      </c>
+      <c r="D46">
+        <v>35</v>
+      </c>
+      <c r="E46">
+        <f>C46-D46</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C47">
+        <v>60</v>
+      </c>
+      <c r="D47">
+        <v>70</v>
+      </c>
+      <c r="E47">
+        <f>C47-D47</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <f>C50-D50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <f>C51-D51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>60</v>
+      </c>
+      <c r="D52">
+        <v>45</v>
+      </c>
+      <c r="E52">
+        <f>C52-D52</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>30</v>
+      </c>
+      <c r="D53">
+        <v>25</v>
+      </c>
+      <c r="E53">
+        <f>C53-D53</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>90</v>
+      </c>
+      <c r="D54">
+        <v>60</v>
+      </c>
+      <c r="E54">
+        <f>C54-D54</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>45</v>
+      </c>
+      <c r="D55">
+        <v>30</v>
+      </c>
+      <c r="E55">
+        <f>C55-D55</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>45</v>
+      </c>
+      <c r="D56">
+        <v>60</v>
+      </c>
+      <c r="E56">
+        <f>C56-D56</f>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>120</v>
+      </c>
+      <c r="D57">
+        <v>120</v>
+      </c>
+      <c r="E57">
+        <f>C57-D57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>35</v>
+      </c>
+      <c r="D58">
+        <v>45</v>
+      </c>
+      <c r="E58">
+        <f>C58-D58</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>60</v>
+      </c>
+      <c r="D59">
+        <v>65</v>
+      </c>
+      <c r="E59">
+        <f>C59-D59</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C60">
+        <v>45</v>
+      </c>
+      <c r="D60">
+        <v>60</v>
+      </c>
+      <c r="E60">
+        <f>C60-D60</f>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>29</v>
       </c>
